--- a/ontology/mcode_structure.xlsx
+++ b/ontology/mcode_structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uthtmc-my.sharepoint.com/personal/kai_zhang_1_uth_tmc_edu/Documents/科研/Project - ontoGPT (94. 7748-7749)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sven2\git-repo\mCodeGPT-streamlined\ontology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="391" documentId="14_{3289D029-4CDC-43BD-8BF9-368068CAAB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E53B2C8-47B9-4059-9D81-6F712E172372}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0594FD4F-D6C2-4E22-9934-56458D0A748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{0015E88C-EFC2-4B52-ADE6-6746027C26F6}"/>
+    <workbookView xWindow="20544" yWindow="0" windowWidth="20832" windowHeight="17376" activeTab="1" xr2:uid="{0015E88C-EFC2-4B52-ADE6-6746027C26F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ontology" sheetId="1" r:id="rId1"/>
@@ -290,21 +290,9 @@
     <t>Reference Sequence</t>
   </si>
   <si>
-    <t xml:space="preserve"> what is the human specimen Identifier?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> what is the human specimen Collection Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> what is the human specimen Type</t>
-  </si>
-  <si>
     <t>what is the Name of the patient?</t>
   </si>
   <si>
-    <t>what is the Contact Info of the patient?</t>
-  </si>
-  <si>
     <t>what is the Birth Date of the patient?</t>
   </si>
   <si>
@@ -314,33 +302,15 @@
     <t>what is the Zip Code of the patient?</t>
   </si>
   <si>
-    <t>what is the US Core Race of the patient?</t>
-  </si>
-  <si>
     <t>what is the US Core Birth Sex of the patient?</t>
   </si>
   <si>
     <t>what is the US Core Ethnicity of the patient?</t>
   </si>
   <si>
-    <t>what is the disease status Evidence Type</t>
-  </si>
-  <si>
-    <t>what is the tumor Identifier</t>
-  </si>
-  <si>
-    <t>what is the tumor  Body Location</t>
-  </si>
-  <si>
     <t>Are there any Tumor Size information?</t>
   </si>
   <si>
-    <t>what is the longest Dimension of the tumor</t>
-  </si>
-  <si>
-    <t>what is the other Dimension of the tumor</t>
-  </si>
-  <si>
     <t>what is the Histology or Morphology of the primary cancer?</t>
   </si>
   <si>
@@ -503,9 +473,6 @@
     <t>Does this patient's clinical notes have any Human Specimen information in it, answer YES or NO</t>
   </si>
   <si>
-    <t>Is the patient's date of death documented in the clinical notes? , answer YES or NO</t>
-  </si>
-  <si>
     <t>Is there any update or note regarding the patient's current disease status?, answer YES or NO</t>
   </si>
   <si>
@@ -753,6 +720,39 @@
   </si>
   <si>
     <t>Does the clinical notes contain the Reference Sequence of the Genomic Region Studied? YES or NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is the human specimen Identifier? It is the ID for the specimen taken from the patient for analysis. It is most likely not the name of the patient or the tumour identifier.</t>
+  </si>
+  <si>
+    <t>What is the anatomical location from where the human specimen is collected?</t>
+  </si>
+  <si>
+    <t>What is the kind of specimen being collected (e.g., tissue, fluid)?</t>
+  </si>
+  <si>
+    <t>what is the Contact Info of the patient? It can be phone numbers, emails, etc.</t>
+  </si>
+  <si>
+    <t>what is the US Core Race of the patient? Only choose from the following: American Indian or Alaska Native, Asian, Black or African American, Native Hawaiian or Other Pacific Islander, White. Say N/A if it's none of the above.</t>
+  </si>
+  <si>
+    <t>What is the death date of the patient, if applicable?</t>
+  </si>
+  <si>
+    <t>what is the disease status Evidence Type? It is a categorization of the evidence type contributing to a clinical judgment on cancer progression.</t>
+  </si>
+  <si>
+    <t>What is the tumor Identifier? It should be a stable identifier(s) for this specific tumor (globally unique within the patient context), and it is usually not the name or the human specimen identifier.</t>
+  </si>
+  <si>
+    <t>What is the anatomical body site where the tumor is located?</t>
+  </si>
+  <si>
+    <t>what is the longest Dimension of the tumor? Include the unit of measurement.</t>
+  </si>
+  <si>
+    <t>Additional orthogonal dimension of the tumor, if applicable. Include the unit of measurement.</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -953,7 +953,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -966,6 +965,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,22 +992,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,42 +1035,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,6 +1046,7 @@
   <colors>
     <mruColors>
       <color rgb="FFFF66FF"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF00FFFF"/>
     </mruColors>
   </colors>
@@ -1062,9 +1062,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1102,7 +1102,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1208,7 +1208,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1350,7 +1350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1360,22 +1360,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3214E81-3B1F-4D6E-A390-A29A7543EC3B}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="51.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="51.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>61</v>
       </c>
@@ -1389,11 +1389,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1401,96 +1401,96 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="26"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="26"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1499,9 +1499,9 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1509,159 +1509,159 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="25"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="27" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="27"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="27"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="27"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
       <c r="B33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="27" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1669,17 +1669,17 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="27"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1687,33 +1687,33 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28" t="s">
         <v>43</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -1721,33 +1721,33 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -1773,41 +1773,41 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
       <c r="B49" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
       <c r="B50" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="33" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -1815,153 +1815,158 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="33"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="28" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="27"/>
+      <c r="B53" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="29"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="27"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="29"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="27"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="29"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="27"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="29"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="29"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="27"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="29"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="29"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="27"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="29"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="27"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="29"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="29"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="27"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="29"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="27"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="29"/>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="27"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="29" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="27"/>
+      <c r="B66" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="29"/>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="27"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="29"/>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="27"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="29"/>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="27"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="29"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="27"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="29"/>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="27"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="9" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B19:B32"/>
+    <mergeCell ref="C19:C29"/>
     <mergeCell ref="B53:B65"/>
     <mergeCell ref="B66:B71"/>
     <mergeCell ref="A2:A71"/>
@@ -1971,11 +1976,6 @@
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B19:B32"/>
-    <mergeCell ref="C19:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1985,19 +1985,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB56AD3A-0A0D-446C-845D-0E33FB16B9E5}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C71"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="87" customWidth="1"/>
-    <col min="3" max="3" width="80.28515625" customWidth="1"/>
-    <col min="4" max="4" width="69.28515625" customWidth="1"/>
+    <col min="3" max="3" width="80.33203125" customWidth="1"/>
+    <col min="4" max="4" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>61</v>
       </c>
@@ -2011,593 +2011,1205 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>154</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
       <c r="B13" s="14" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="15" t="s">
-        <v>156</v>
+    <row r="14" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A14" s="31"/>
+      <c r="B14" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="4" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="25" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="11" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="11" t="s">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="12" t="s">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="12" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A33" s="31"/>
+      <c r="B33" s="15" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="34" t="s">
-        <v>160</v>
+    <row r="34" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="45" t="s">
+        <v>149</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="5" t="s">
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31"/>
+      <c r="B46" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="6" t="s">
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="6" t="s">
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="6" t="s">
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A49" s="31"/>
+      <c r="B49" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="17" t="s">
-        <v>132</v>
+    <row r="50" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A50" s="31"/>
+      <c r="B50" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="10"/>
     </row>
-    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="40" t="s">
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31"/>
+      <c r="B51" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="31"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31"/>
+      <c r="B53" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="31"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="31"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="31"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="31"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="31"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="31"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="31"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="31"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="31"/>
+      <c r="B66" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="31"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="31"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="31"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="31"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="31"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B32"/>
+    <mergeCell ref="C19:C29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="A2:A71"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C7AC4A-EF4E-4348-BF62-8497AE812B11}">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="46.5546875" customWidth="1"/>
+    <col min="3" max="3" width="86.109375" customWidth="1"/>
+    <col min="4" max="4" width="95.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>133</v>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A14" s="31"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="31"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
+      <c r="B49" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="31"/>
+      <c r="B50" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="31"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="22" t="s">
+        <v>207</v>
       </c>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="7" t="s">
-        <v>134</v>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="31"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>135</v>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="31"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="18" t="s">
-        <v>136</v>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="18" t="s">
-        <v>137</v>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="23" t="s">
+        <v>211</v>
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="18" t="s">
-        <v>138</v>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="31"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="23" t="s">
+        <v>212</v>
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="18" t="s">
-        <v>139</v>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="23" t="s">
+        <v>213</v>
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="18" t="s">
-        <v>140</v>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="31"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="18" t="s">
-        <v>141</v>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="31"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="18" t="s">
-        <v>142</v>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="18" t="s">
-        <v>143</v>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="31"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="23" t="s">
+        <v>217</v>
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="18" t="s">
-        <v>144</v>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="31"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="23" t="s">
+        <v>218</v>
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="18" t="s">
-        <v>145</v>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="31"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="23" t="s">
+        <v>219</v>
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="18" t="s">
-        <v>146</v>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="31"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="18" t="s">
-        <v>147</v>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="31"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="23" t="s">
+        <v>221</v>
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>148</v>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="31"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="23" t="s">
+        <v>222</v>
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="18" t="s">
-        <v>149</v>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="31"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="18" t="s">
-        <v>150</v>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="31"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="23" t="s">
+        <v>224</v>
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="18" t="s">
-        <v>151</v>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="31"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="18" t="s">
-        <v>152</v>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="31"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="18" t="s">
-        <v>153</v>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="31"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="23" t="s">
+        <v>227</v>
       </c>
       <c r="D71" s="1"/>
     </row>
@@ -2619,617 +3231,5 @@
     <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C7AC4A-EF4E-4348-BF62-8497AE812B11}">
-  <dimension ref="A1:D71"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" customWidth="1"/>
-    <col min="4" max="4" width="95.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D71" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B32"/>
-    <mergeCell ref="C19:C29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B65"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="A2:A71"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>